--- a/DataTableGen/DataTable/UserCommodity.xlsx
+++ b/DataTableGen/DataTable/UserCommodity.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>INT</t>
   </si>
@@ -37,7 +37,7 @@
     <t>STRING</t>
   </si>
   <si>
-    <t>#编号</t>
+    <t>编号</t>
   </si>
   <si>
     <t>策划备注</t>
@@ -58,7 +58,7 @@
     <t>商品图标</t>
   </si>
   <si>
-    <t>#Id</t>
+    <t>Id</t>
   </si>
   <si>
     <t>Desc</t>
@@ -85,7 +85,7 @@
     <t>王国商城至尊勋章</t>
   </si>
   <si>
-    <t>aaa</t>
+    <t>aaa.png</t>
   </si>
   <si>
     <t>19VIPPLUS</t>
@@ -103,9 +103,6 @@
     <t>19ITEMR00G</t>
   </si>
   <si>
-    <t>手气卡</t>
-  </si>
-  <si>
     <t>18TOOLSF</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
     <t>永久干扰精通</t>
   </si>
   <si>
+    <t>bbb.png</t>
+  </si>
+  <si>
     <t>18TOOLSI</t>
   </si>
   <si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>永久会员</t>
+  </si>
+  <si>
+    <t>ccc.png</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1112,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1249,9 +1252,7 @@
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7">
         <v>1</v>
       </c>
@@ -1264,10 +1265,10 @@
         <v>391</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1278,13 +1279,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1293,21 +1294,24 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>392</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" s="1">
         <v>168</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1446,7 +1450,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>418</v>
       </c>
@@ -1461,6 +1465,9 @@
       </c>
       <c r="F19" s="1">
         <v>188</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
